--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1955.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1955.xlsx
@@ -351,10 +351,10 @@
         <v>1.608853111554812</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.266851358256906</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1955.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1955.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.608853111554812</v>
+        <v>0.2381042689085007</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.2103091180324554</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.200173631310463</v>
       </c>
       <c r="D1">
-        <v>1.266851358256906</v>
+        <v>0.2375946491956711</v>
       </c>
       <c r="E1">
-        <v>0.8972204777438497</v>
+        <v>0.3300251662731171</v>
       </c>
     </row>
   </sheetData>
